--- a/clubFerias2/relatorios/relatorios tempo Total de Uso.xlsx
+++ b/clubFerias2/relatorios/relatorios tempo Total de Uso.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Socio</t>
   </si>
@@ -40,39 +40,42 @@
     <t>Lucas Henrique</t>
   </si>
   <si>
+    <t>Maria Silva</t>
+  </si>
+  <si>
+    <t>3 Horas e 30 Minutos</t>
+  </si>
+  <si>
+    <t>Pedro Souza</t>
+  </si>
+  <si>
+    <t>Camila Rodrigues</t>
+  </si>
+  <si>
+    <t>5 Horas e 0 Minutos</t>
+  </si>
+  <si>
+    <t>Espaço</t>
+  </si>
+  <si>
+    <t>Quadra de futebol</t>
+  </si>
+  <si>
+    <t>9 Horas e 0 Minutos</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
     <t>1 Horas e 0 Minutos</t>
   </si>
   <si>
-    <t>Maria Silva</t>
-  </si>
-  <si>
-    <t>3 Horas e 30 Minutos</t>
-  </si>
-  <si>
-    <t>Pedro Souza</t>
-  </si>
-  <si>
-    <t>Camila Rodrigues</t>
-  </si>
-  <si>
-    <t>5 Horas e 0 Minutos</t>
-  </si>
-  <si>
-    <t>Espaço</t>
-  </si>
-  <si>
-    <t>Quadra de futebol</t>
-  </si>
-  <si>
-    <t>9 Horas e 0 Minutos</t>
-  </si>
-  <si>
-    <t>Spá</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quadra de Vôlei de praia </t>
   </si>
   <si>
+    <t>piscina novo</t>
+  </si>
+  <si>
     <t>Lago</t>
   </si>
   <si>
@@ -85,13 +88,19 @@
     <t>Esportes</t>
   </si>
   <si>
-    <t>10 Horas e 0 Minutos</t>
+    <t>11 Horas e 0 Minutos</t>
   </si>
   <si>
     <t>Recreação</t>
   </si>
   <si>
     <t>Relaxamento</t>
+  </si>
+  <si>
+    <t>4 Horas e 30 Minutos</t>
+  </si>
+  <si>
+    <t>Lazer</t>
   </si>
 </sst>
 </file>
@@ -236,20 +245,20 @@
         <v>7</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="3">
         <v>9</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>5</v>
@@ -257,10 +266,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="3">
         <v>12</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -278,7 +287,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s" s="4">
         <v>1</v>
@@ -286,18 +295,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="6">
         <v>15</v>
-      </c>
-      <c r="B2" t="s" s="6">
-        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s" s="5">
         <v>17</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -305,7 +314,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -313,7 +322,15 @@
         <v>19</v>
       </c>
       <c r="B5" t="s" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="6">
         <v>20</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -331,7 +348,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s" s="7">
         <v>1</v>
@@ -339,26 +356,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="9">
-        <v>10</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/clubFerias2/relatorios/relatorios tempo Total de Uso.xlsx
+++ b/clubFerias2/relatorios/relatorios tempo Total de Uso.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Socio</t>
   </si>
@@ -22,12 +22,15 @@
     <t>Total de Uso</t>
   </si>
   <si>
+    <t>teste update dois</t>
+  </si>
+  <si>
+    <t>0 Horas e 0 Minutos</t>
+  </si>
+  <si>
     <t>Larissa Costa</t>
   </si>
   <si>
-    <t>0 Horas e 0 Minutos</t>
-  </si>
-  <si>
     <t>Joao Oliveira</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>Espaço</t>
+  </si>
+  <si>
+    <t>quadra de tenis</t>
   </si>
   <si>
     <t>Quadra de futebol</t>
@@ -229,15 +235,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="3">
         <v>6</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -245,7 +251,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -253,15 +259,15 @@
         <v>8</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -269,7 +275,15 @@
         <v>11</v>
       </c>
       <c r="B8" t="s" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
         <v>12</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -287,7 +301,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s" s="4">
         <v>1</v>
@@ -295,10 +309,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s" s="6">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -314,23 +328,31 @@
         <v>18</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="5">
         <v>19</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="6">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -348,7 +370,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s" s="7">
         <v>1</v>
@@ -356,31 +378,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="8">
         <v>3</v>
